--- a/biology/Botanique/Heptacodium/Heptacodium.xlsx
+++ b/biology/Botanique/Heptacodium/Heptacodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heptacodium est un genre de petits arbres originaires de Chine de la famille des Caprifoliacées.
 Nom chinois : 七子花属
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petits arbres ou grands arbustes caducs, aux feuilles opposées.
 La floraison débute en fin d'été.
@@ -546,10 +560,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Seules deux espèces, toutes originaires de Chine, sont référencées :
-Heptacodium jasminoides Airy Shaw (1952)[1]
+Heptacodium jasminoides Airy Shaw (1952)
 Heptacodium miconioides Rehder (1916)</t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est classé dans la tribu Linnaeeae de la sous-famille des Caprifolioideae de la famille des Caprifoliacées
 L'espèce-type a été collectée en Chine, dans le Yunnan, lors de l'expédition de Ernest Henry Wilson en 1907. Elle a servi à la description du genre par Alfred Rehder en 1916.
